--- a/output/endemo2_industry_coef_per_capita.xlsx
+++ b/output/endemo2_industry_coef_per_capita.xlsx
@@ -531,50 +531,50 @@
         </is>
       </c>
       <c r="B2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 0.0004725627445184034)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 0.0004725627445184034)</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0.38</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-0.08</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>-2.21</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="3">
@@ -584,47 +584,47 @@
         </is>
       </c>
       <c r="B3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 0.0)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 0.0)</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0.77</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0.04</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -637,50 +637,50 @@
         </is>
       </c>
       <c r="B4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 0.000441489349692679)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 0.000441489349692679)</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>0.66</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>-0.06</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>-0.29</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="5">
@@ -690,16 +690,16 @@
         </is>
       </c>
       <c r="B5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 0.0)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 0.0)</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -709,31 +709,31 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>-0.19</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>-4.15</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="6">
@@ -743,16 +743,16 @@
         </is>
       </c>
       <c r="B6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 0.00035862396183658214)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 0.00035862396183658214)</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -762,31 +762,31 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>0.28</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="7">
@@ -796,16 +796,16 @@
         </is>
       </c>
       <c r="B7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 0.0)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 0.0)</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -815,28 +815,28 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>-0.45</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>9.1</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -849,50 +849,50 @@
         </is>
       </c>
       <c r="B8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 0.0)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 0.0)</t>
         </is>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>-0.03</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>-2.02</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="9">
@@ -902,50 +902,50 @@
         </is>
       </c>
       <c r="B9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 0.00010491956515690903)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 0.00010491956515690903)</t>
         </is>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>-0.42</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="10">
@@ -955,50 +955,50 @@
         </is>
       </c>
       <c r="B10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 0.00015682112273074708)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 0.00015682112273074708)</t>
         </is>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>0.63</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>-0.4</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="11">
@@ -1061,50 +1061,50 @@
         </is>
       </c>
       <c r="B12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 7.48074865743732e-05)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 7.48074865743732e-05)</t>
         </is>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>-0.31</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>-0.61</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="13">
@@ -1167,50 +1167,50 @@
         </is>
       </c>
       <c r="B14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 0.0)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 0.0)</t>
         </is>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>0.78</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>32.22</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>-0.03</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>-4.48</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>-199.62</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="15">
@@ -1220,47 +1220,47 @@
         </is>
       </c>
       <c r="B15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 0.0001698111740662738)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 0.0001698111740662738)</t>
         </is>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>-0.06</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>0.77</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -1273,50 +1273,50 @@
         </is>
       </c>
       <c r="B16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 0.0003953777078701346)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 0.0003953777078701346)</t>
         </is>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>-0.05</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>-0.52</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="17">
@@ -1326,50 +1326,50 @@
         </is>
       </c>
       <c r="B17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 0.000698714476216956)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 0.000698714476216956)</t>
         </is>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>-0.02</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>0.72</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>-0.12</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>-3.15</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="18">
@@ -1379,47 +1379,47 @@
         </is>
       </c>
       <c r="B18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 0.00014225241772493563)</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 0.00014225241772493563)</t>
         </is>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>0.64</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>-0.02</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>0.49</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -1432,16 +1432,16 @@
         </is>
       </c>
       <c r="B19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 0.0)</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 0.0)</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -1451,31 +1451,31 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>-0.14</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>-0.05</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>-1.07</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="20">
@@ -1485,47 +1485,47 @@
         </is>
       </c>
       <c r="B20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 0.00011168755009892693)</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 0.00011168755009892693)</t>
         </is>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>-0.03</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -1591,47 +1591,47 @@
         </is>
       </c>
       <c r="B22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 0.0008790914034597804)</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 0.0008790914034597804)</t>
         </is>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>-0.16</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -1644,50 +1644,50 @@
         </is>
       </c>
       <c r="B23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 0.0005069327035957592)</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 0.0005069327035957592)</t>
         </is>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>-1.48</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>-2.72</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="24">
@@ -1697,50 +1697,50 @@
         </is>
       </c>
       <c r="B24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 0.00027812682858561994)</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 0.00027812682858561994)</t>
         </is>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>-0.32</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>-0.93</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="25">
@@ -1750,50 +1750,50 @@
         </is>
       </c>
       <c r="B25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 8.501310194843409e-05)</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 8.501310194843409e-05)</t>
         </is>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>-0.3</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>-0.02</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>-0.3</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="26">
@@ -1803,50 +1803,50 @@
         </is>
       </c>
       <c r="B26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 0.0)</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 0.0)</t>
         </is>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>-0.35</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>-13.16</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="27">
@@ -1856,50 +1856,50 @@
         </is>
       </c>
       <c r="B27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 0.0)</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 0.0)</t>
         </is>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>-0.03</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>-3.92</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="28">
@@ -1962,16 +1962,16 @@
         </is>
       </c>
       <c r="B29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 0.0)</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 0.0)</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -1981,28 +1981,28 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -2015,16 +2015,16 @@
         </is>
       </c>
       <c r="B30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 0.0)</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 0.0)</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -2034,28 +2034,28 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>-0.05</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>-0.06</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>5.14</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -2068,16 +2068,16 @@
         </is>
       </c>
       <c r="B31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 0.000253487094499416)</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 0.000253487094499416)</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -2087,28 +2087,28 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>-0.05</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -2121,16 +2121,16 @@
         </is>
       </c>
       <c r="B32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 0.00020908990534996387)</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 0.00020908990534996387)</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -2140,31 +2140,31 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>-1.1</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="33">
@@ -2429,16 +2429,16 @@
         </is>
       </c>
       <c r="B2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 0.00023181705380931951)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 0.00023181705380931951)</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -2460,19 +2460,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-0.08</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>-2.21</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="3">
@@ -2535,16 +2535,16 @@
         </is>
       </c>
       <c r="B4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 2.0470505538701676e-05)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 2.0470505538701676e-05)</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -2566,19 +2566,19 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>-0.06</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>-0.29</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="5">
@@ -2641,16 +2641,16 @@
         </is>
       </c>
       <c r="B6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 5.96127913410591e-05)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 5.96127913410591e-05)</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -2672,19 +2672,19 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="7">
@@ -2800,16 +2800,16 @@
         </is>
       </c>
       <c r="B9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 1.6923889125106304e-05)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 1.6923889125106304e-05)</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -2831,19 +2831,19 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>-0.42</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="10">
@@ -2853,16 +2853,16 @@
         </is>
       </c>
       <c r="B10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 3.9089559563835695e-05)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 3.9089559563835695e-05)</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -2884,19 +2884,19 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>-0.4</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="11">
@@ -2959,16 +2959,16 @@
         </is>
       </c>
       <c r="B12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 1.6550328888135665e-05)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 1.6550328888135665e-05)</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -2990,19 +2990,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>-0.61</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="13">
@@ -3118,16 +3118,16 @@
         </is>
       </c>
       <c r="B15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 5.937171502329687e-05)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 5.937171502329687e-05)</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -3149,16 +3149,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>-0.06</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>0.77</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -3171,16 +3171,16 @@
         </is>
       </c>
       <c r="B16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 0.0001448695578547907)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 0.0001448695578547907)</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -3202,19 +3202,19 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>-0.05</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>-0.52</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="17">
@@ -3224,16 +3224,16 @@
         </is>
       </c>
       <c r="B17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 2.2623101059315396e-05)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 2.2623101059315396e-05)</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -3255,19 +3255,19 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>-0.12</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>-3.15</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="18">
@@ -3277,16 +3277,16 @@
         </is>
       </c>
       <c r="B18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 1.231965977392873e-05)</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 1.231965977392873e-05)</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -3308,16 +3308,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>-0.02</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>0.49</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -3330,16 +3330,16 @@
         </is>
       </c>
       <c r="B19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 2.8895858587400677e-05)</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 2.8895858587400677e-05)</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -3361,19 +3361,19 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>-0.05</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>-1.07</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="20">
@@ -3489,16 +3489,16 @@
         </is>
       </c>
       <c r="B22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 6.6009321124649095e-06)</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 6.6009321124649095e-06)</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -3520,16 +3520,16 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>-0.16</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -3542,16 +3542,16 @@
         </is>
       </c>
       <c r="B23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 3.227253978542387e-05)</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 3.227253978542387e-05)</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -3573,19 +3573,19 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>-2.72</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="24">
@@ -3595,16 +3595,16 @@
         </is>
       </c>
       <c r="B24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 2.0314530976940634e-05)</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 2.0314530976940634e-05)</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -3626,19 +3626,19 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>-0.93</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="25">
@@ -3966,16 +3966,16 @@
         </is>
       </c>
       <c r="B31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 2.2914087638365285e-05)</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 2.2914087638365285e-05)</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -3997,16 +3997,16 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>-0.05</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -4327,16 +4327,16 @@
         </is>
       </c>
       <c r="B2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 0.00010440543138001511)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 0.00010440543138001511)</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -4358,19 +4358,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-0.08</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>-2.21</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="3">
@@ -4433,16 +4433,16 @@
         </is>
       </c>
       <c r="B4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 2.0470505538701676e-05)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 2.0470505538701676e-05)</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -4464,19 +4464,19 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>-0.06</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>-0.29</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="5">
@@ -4539,16 +4539,16 @@
         </is>
       </c>
       <c r="B6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 4.629658399458798e-05)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 4.629658399458798e-05)</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -4570,19 +4570,19 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="7">
@@ -4698,16 +4698,16 @@
         </is>
       </c>
       <c r="B9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 2.606280207379183e-05)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 2.606280207379183e-05)</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -4729,19 +4729,19 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>-0.42</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="10">
@@ -4751,16 +4751,16 @@
         </is>
       </c>
       <c r="B10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 3.244045826749444e-05)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 3.244045826749444e-05)</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -4782,19 +4782,19 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>-0.4</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="11">
@@ -4857,16 +4857,16 @@
         </is>
       </c>
       <c r="B12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 1.737784533254245e-05)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 1.737784533254245e-05)</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -4888,19 +4888,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>-0.61</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="13">
@@ -5016,16 +5016,16 @@
         </is>
       </c>
       <c r="B15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 3.682969084955098e-05)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 3.682969084955098e-05)</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -5047,16 +5047,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>-0.06</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>0.77</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -5069,16 +5069,16 @@
         </is>
       </c>
       <c r="B16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 0.0001149356080319639)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 0.0001149356080319639)</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -5100,19 +5100,19 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>-0.05</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>-0.52</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="17">
@@ -5122,16 +5122,16 @@
         </is>
       </c>
       <c r="B17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 2.2623101059315396e-05)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 2.2623101059315396e-05)</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -5153,19 +5153,19 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>-0.12</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>-3.15</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="18">
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 9.412471444841637e-06)</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 9.412471444841637e-06)</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -5206,16 +5206,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>-0.02</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>0.49</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -5228,16 +5228,16 @@
         </is>
       </c>
       <c r="B19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 1.3855539360755174e-05)</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 1.3855539360755174e-05)</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -5259,19 +5259,19 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>-0.05</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>-1.07</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="20">
@@ -5281,16 +5281,16 @@
         </is>
       </c>
       <c r="B20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 1.2357496134583754e-05)</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 1.2357496134583754e-05)</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -5312,16 +5312,16 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>-0.03</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -5387,16 +5387,16 @@
         </is>
       </c>
       <c r="B22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 6.211973509678273e-06)</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 6.211973509678273e-06)</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -5418,16 +5418,16 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>-0.16</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -5440,16 +5440,16 @@
         </is>
       </c>
       <c r="B23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 3.045947575253489e-05)</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 3.045947575253489e-05)</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -5471,19 +5471,19 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>-2.72</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="24">
@@ -5493,16 +5493,16 @@
         </is>
       </c>
       <c r="B24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 2.6326925409136357e-05)</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 2.6326925409136357e-05)</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -5524,19 +5524,19 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>-0.93</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="25">
@@ -5599,16 +5599,16 @@
         </is>
       </c>
       <c r="B26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 3.299380738199424e-05)</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 3.299380738199424e-05)</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -5630,19 +5630,19 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>-0.35</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>-13.16</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="27">
@@ -5864,16 +5864,16 @@
         </is>
       </c>
       <c r="B31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 1.367684605914928e-05)</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 1.367684605914928e-05)</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -5895,16 +5895,16 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>-0.05</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -6023,16 +6023,16 @@
         </is>
       </c>
       <c r="B34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 1.7726218373232182e-05)</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 1.7726218373232182e-05)</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -6054,16 +6054,16 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>-0.4</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>10.45</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -6225,16 +6225,16 @@
         </is>
       </c>
       <c r="B2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 6.873347960900509e-05)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 6.873347960900509e-05)</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -6256,19 +6256,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-0.08</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>-2.21</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="3">
@@ -6331,16 +6331,16 @@
         </is>
       </c>
       <c r="B4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 4.216427430176385e-05)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 4.216427430176385e-05)</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -6362,19 +6362,19 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>-0.06</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>-0.29</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="5">
@@ -6437,16 +6437,16 @@
         </is>
       </c>
       <c r="B6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 4.053610820533603e-05)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 4.053610820533603e-05)</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -6468,19 +6468,19 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="7">
@@ -6596,16 +6596,16 @@
         </is>
       </c>
       <c r="B9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 1.1589129897131387e-05)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 1.1589129897131387e-05)</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -6627,19 +6627,19 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>-0.42</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="10">
@@ -6649,16 +6649,16 @@
         </is>
       </c>
       <c r="B10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 1.6463455755544837e-05)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 1.6463455755544837e-05)</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -6680,19 +6680,19 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>-0.4</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="11">
@@ -6702,16 +6702,16 @@
         </is>
       </c>
       <c r="B11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 3.881672233172034e-06)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 3.881672233172034e-06)</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -6733,19 +6733,19 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>-0.13</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>-3.91</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="12">
@@ -6755,16 +6755,16 @@
         </is>
       </c>
       <c r="B12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 1.5767960361741642e-05)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 1.5767960361741642e-05)</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -6786,19 +6786,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>-0.61</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="13">
@@ -6914,16 +6914,16 @@
         </is>
       </c>
       <c r="B15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 4.825356368184997e-05)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 4.825356368184997e-05)</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -6945,16 +6945,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>-0.06</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>0.77</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -6967,16 +6967,16 @@
         </is>
       </c>
       <c r="B16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 0.00013466246903561346)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 0.00013466246903561346)</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -6998,19 +6998,19 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>-0.05</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>-0.52</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="17">
@@ -7073,16 +7073,16 @@
         </is>
       </c>
       <c r="B18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 1.4556642900874926e-05)</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 1.4556642900874926e-05)</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -7104,16 +7104,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>-0.02</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>0.49</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -7126,16 +7126,16 @@
         </is>
       </c>
       <c r="B19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 2.9652871058056044e-05)</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 2.9652871058056044e-05)</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -7157,19 +7157,19 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>-0.05</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>-1.07</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="20">
@@ -7179,16 +7179,16 @@
         </is>
       </c>
       <c r="B20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 2.196474319309314e-06)</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 2.196474319309314e-06)</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -7210,16 +7210,16 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>-0.03</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -7285,16 +7285,16 @@
         </is>
       </c>
       <c r="B22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 2.265517769220594e-05)</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 2.265517769220594e-05)</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -7316,16 +7316,16 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>-0.16</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -7391,16 +7391,16 @@
         </is>
       </c>
       <c r="B24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 1.0216580102284717e-06)</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 1.0216580102284717e-06)</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -7422,19 +7422,19 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>-0.93</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="25">
@@ -7444,16 +7444,16 @@
         </is>
       </c>
       <c r="B25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 1.00470543945725e-06)</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 1.00470543945725e-06)</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -7475,19 +7475,19 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>-0.02</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>-0.3</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="26">
@@ -7974,16 +7974,16 @@
         </is>
       </c>
       <c r="B35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 2.288939917960695e-09)</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 2.288939917960695e-09)</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -8005,19 +8005,19 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>-0.8</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>-28.51</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
   </sheetData>
@@ -11919,20 +11919,20 @@
         </is>
       </c>
       <c r="B2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 0.0001484426413859257)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 0.0001484426413859257)</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -11950,19 +11950,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-0.08</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>-2.21</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="3">
@@ -11972,20 +11972,20 @@
         </is>
       </c>
       <c r="B3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 2.4295388052760434e-05)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 2.4295388052760434e-05)</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -12003,16 +12003,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0.04</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -12025,20 +12025,20 @@
         </is>
       </c>
       <c r="B4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 0.00013629175969479942)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 0.00013629175969479942)</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -12056,19 +12056,19 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>-0.06</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>-0.29</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="5">
@@ -12078,20 +12078,20 @@
         </is>
       </c>
       <c r="B5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 5.987767842738709e-05)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 5.987767842738709e-05)</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -12109,19 +12109,19 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>-0.19</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>-4.15</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="6">
@@ -12131,20 +12131,20 @@
         </is>
       </c>
       <c r="B6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 8.489655899214533e-05)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 8.489655899214533e-05)</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -12162,19 +12162,19 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="7">
@@ -12184,20 +12184,20 @@
         </is>
       </c>
       <c r="B7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 4.807918779056055e-06)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 4.807918779056055e-06)</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -12215,16 +12215,16 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>-0.45</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>9.1</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -12237,20 +12237,20 @@
         </is>
       </c>
       <c r="B8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 3.0053373051773668e-05)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 3.0053373051773668e-05)</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -12268,19 +12268,19 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>-0.03</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>-2.02</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="9">
@@ -12290,20 +12290,20 @@
         </is>
       </c>
       <c r="B9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 7.270133504571985e-05)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 7.270133504571985e-05)</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -12321,19 +12321,19 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>-0.42</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="10">
@@ -12343,20 +12343,20 @@
         </is>
       </c>
       <c r="B10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 8.565319009277903e-05)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 8.565319009277903e-05)</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -12374,19 +12374,19 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>-0.4</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="11">
@@ -12396,20 +12396,20 @@
         </is>
       </c>
       <c r="B11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 0.0001100844626371414)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 0.0001100844626371414)</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -12427,19 +12427,19 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>-0.13</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>-3.91</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="12">
@@ -12449,20 +12449,20 @@
         </is>
       </c>
       <c r="B12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 8.405499077504139e-05)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 8.405499077504139e-05)</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -12480,19 +12480,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>-0.61</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="13">
@@ -12502,20 +12502,20 @@
         </is>
       </c>
       <c r="B13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 1.4239075698711292e-05)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 1.4239075698711292e-05)</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -12533,19 +12533,19 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>-0.52</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>-1.51</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="14">
@@ -12555,20 +12555,20 @@
         </is>
       </c>
       <c r="B14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 0.0005062496915864791)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 0.0005062496915864791)</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -12586,19 +12586,19 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>-4.48</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>-199.62</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="15">
@@ -12608,20 +12608,20 @@
         </is>
       </c>
       <c r="B15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 6.269083229707598e-05)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 6.269083229707598e-05)</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -12639,16 +12639,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>-0.06</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>0.77</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -12661,20 +12661,20 @@
         </is>
       </c>
       <c r="B16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 7.59148446836957e-05)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 7.59148446836957e-05)</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -12692,19 +12692,19 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>-0.05</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>-0.52</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="17">
@@ -12767,20 +12767,20 @@
         </is>
       </c>
       <c r="B18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 6.228830709879591e-05)</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 6.228830709879591e-05)</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -12798,16 +12798,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>-0.02</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>0.49</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -12820,20 +12820,20 @@
         </is>
       </c>
       <c r="B19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 0.00014027939223374344)</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 0.00014027939223374344)</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -12851,19 +12851,19 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>-0.05</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>-1.07</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="20">
@@ -12873,20 +12873,20 @@
         </is>
       </c>
       <c r="B20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 2.3109899693454047e-05)</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 2.3109899693454047e-05)</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -12904,16 +12904,16 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>-0.03</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -12926,20 +12926,20 @@
         </is>
       </c>
       <c r="B21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 5.427273525069266e-05)</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 5.427273525069266e-05)</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -12957,19 +12957,19 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>-0.32</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>-23.85</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="22">
@@ -12979,20 +12979,20 @@
         </is>
       </c>
       <c r="B22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 6.275208386827738e-05)</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 6.275208386827738e-05)</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -13010,16 +13010,16 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>-0.16</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -13032,20 +13032,20 @@
         </is>
       </c>
       <c r="B23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 0.00010532022658678873)</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 0.00010532022658678873)</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -13063,19 +13063,19 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>-2.72</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="24">
@@ -13085,20 +13085,20 @@
         </is>
       </c>
       <c r="B24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 4.397078954146157e-05)</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 4.397078954146157e-05)</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -13116,19 +13116,19 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>-0.93</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="25">
@@ -13138,20 +13138,20 @@
         </is>
       </c>
       <c r="B25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 5.0608702581214094e-05)</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 5.0608702581214094e-05)</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -13169,19 +13169,19 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>-0.02</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>-0.3</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="26">
@@ -13456,20 +13456,20 @@
         </is>
       </c>
       <c r="B31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 1.5681828727506244e-05)</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 1.5681828727506244e-05)</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -13487,16 +13487,16 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>-0.05</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -13615,20 +13615,20 @@
         </is>
       </c>
       <c r="B34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 1.8261586561405624e-05)</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 1.8261586561405624e-05)</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -13646,16 +13646,16 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>-0.4</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>10.45</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -13668,20 +13668,20 @@
         </is>
       </c>
       <c r="B35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 0.00010208826124307255)</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 0.00010208826124307255)</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -13699,19 +13699,19 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>-0.8</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>-28.51</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
   </sheetData>
@@ -13976,50 +13976,50 @@
         </is>
       </c>
       <c r="B5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2002.0, 7.29176025510744e-05)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2002.0, 7.29176025510744e-05)</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>-1.04</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>-0.19</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>-4.15</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="6">
@@ -14082,47 +14082,47 @@
         </is>
       </c>
       <c r="B7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2001.0, 3.879735443426603e-05)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2001.0, 3.879735443426603e-05)</t>
         </is>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>-1.78</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>-0.45</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>9.1</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -14400,50 +14400,50 @@
         </is>
       </c>
       <c r="B13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2013.0, 9.837790730316841e-05)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2013.0, 9.837790730316841e-05)</t>
         </is>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>-0.04</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>8.25</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>-0.52</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>-1.51</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="14">
@@ -14559,16 +14559,16 @@
         </is>
       </c>
       <c r="B16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2016.0, 5.46085057503931e-06)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2016.0, 5.46085057503931e-06)</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -14578,31 +14578,31 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>-0.05</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>-0.52</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="17">
@@ -15301,47 +15301,47 @@
         </is>
       </c>
       <c r="B30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2016.0, 1.7384646783962036e-05)</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2016.0, 1.7384646783962036e-05)</t>
         </is>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>-0.06</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>5.14</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -15407,50 +15407,50 @@
         </is>
       </c>
       <c r="B32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2013.0, 2.8227871183803523e-07)</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2013.0, 2.8227871183803523e-07)</t>
         </is>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>0.29</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>-1.1</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="33">
@@ -16192,16 +16192,16 @@
         </is>
       </c>
       <c r="B11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 0.0)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 0.0)</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -16211,31 +16211,31 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>-0.13</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>-3.91</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="12">
@@ -16245,16 +16245,16 @@
         </is>
       </c>
       <c r="B12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 0.0)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 0.0)</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -16264,31 +16264,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>-0.02</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>-0.61</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="13">
@@ -16404,16 +16404,16 @@
         </is>
       </c>
       <c r="B15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 0.0)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 0.0)</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -16423,28 +16423,28 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>-0.02</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>-0.06</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>0.77</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -16510,16 +16510,16 @@
         </is>
       </c>
       <c r="B17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 0.0)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 0.0)</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -16529,31 +16529,31 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>-0.02</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>-0.12</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>-3.15</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="18">
@@ -16563,16 +16563,16 @@
         </is>
       </c>
       <c r="B18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 0.0)</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 0.0)</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -16582,28 +16582,28 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>-0.02</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>0.49</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -17040,16 +17040,16 @@
         </is>
       </c>
       <c r="B27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 0.0)</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 0.0)</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -17059,31 +17059,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>-0.03</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>-0.03</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>-3.92</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="28">
@@ -17666,16 +17666,16 @@
         </is>
       </c>
       <c r="B3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 1.850524061296759e-06)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 1.850524061296759e-06)</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -17697,16 +17697,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0.04</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -17719,16 +17719,16 @@
         </is>
       </c>
       <c r="B4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 1.4111102163627073e-06)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 1.4111102163627073e-06)</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -17750,19 +17750,19 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>-0.06</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>-0.29</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="5">
@@ -17772,16 +17772,16 @@
         </is>
       </c>
       <c r="B5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 4.315079511381108e-06)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 4.315079511381108e-06)</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -17803,19 +17803,19 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>-0.19</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>-4.15</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="6">
@@ -17825,16 +17825,16 @@
         </is>
       </c>
       <c r="B6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 9.601260380126443e-06)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 9.601260380126443e-06)</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -17856,19 +17856,19 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="7">
@@ -17931,16 +17931,16 @@
         </is>
       </c>
       <c r="B8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 2.795148591030815e-07)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 2.795148591030815e-07)</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -17962,19 +17962,19 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>-0.03</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>-2.02</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="9">
@@ -17984,16 +17984,16 @@
         </is>
       </c>
       <c r="B9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 5.192556890657615e-06)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 5.192556890657615e-06)</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -18015,19 +18015,19 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>-0.42</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="10">
@@ -18037,16 +18037,16 @@
         </is>
       </c>
       <c r="B10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 3.3083996242731023e-06)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 3.3083996242731023e-06)</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -18068,19 +18068,19 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>-0.4</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="11">
@@ -18090,16 +18090,16 @@
         </is>
       </c>
       <c r="B11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 4.892555805103083e-07)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 4.892555805103083e-07)</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -18121,19 +18121,19 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>-0.13</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>-3.91</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="12">
@@ -18143,16 +18143,16 @@
         </is>
       </c>
       <c r="B12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 1.1022519039498353e-05)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 1.1022519039498353e-05)</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -18174,19 +18174,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>-0.61</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="13">
@@ -18302,16 +18302,16 @@
         </is>
       </c>
       <c r="B15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 5.114794399586561e-06)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 5.114794399586561e-06)</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -18333,16 +18333,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>-0.06</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>0.77</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -18355,16 +18355,16 @@
         </is>
       </c>
       <c r="B16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 1.450820886063902e-06)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 1.450820886063902e-06)</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -18386,19 +18386,19 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>-0.05</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>-0.52</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="17">
@@ -18408,16 +18408,16 @@
         </is>
       </c>
       <c r="B17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 1.6967325794486548e-05)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 1.6967325794486548e-05)</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -18439,19 +18439,19 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>-0.12</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>-3.15</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="18">
@@ -18461,16 +18461,16 @@
         </is>
       </c>
       <c r="B18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 5.003324577515323e-07)</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 5.003324577515323e-07)</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -18492,16 +18492,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>-0.02</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>0.49</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -18514,16 +18514,16 @@
         </is>
       </c>
       <c r="B19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 1.7503220106299e-06)</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 1.7503220106299e-06)</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -18545,19 +18545,19 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>-0.05</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>-1.07</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="20">
@@ -18567,16 +18567,16 @@
         </is>
       </c>
       <c r="B20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 5.648565752129638e-07)</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 5.648565752129638e-07)</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -18598,16 +18598,16 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>-0.03</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -18620,16 +18620,16 @@
         </is>
       </c>
       <c r="B21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 9.643694422183583e-06)</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 9.643694422183583e-06)</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -18651,19 +18651,19 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>-0.32</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>-23.85</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="22">
@@ -18726,16 +18726,16 @@
         </is>
       </c>
       <c r="B23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 6.5270305184003335e-06)</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 6.5270305184003335e-06)</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -18757,19 +18757,19 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>-2.72</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="24">
@@ -18779,16 +18779,16 @@
         </is>
       </c>
       <c r="B24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 3.144897001674854e-06)</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 3.144897001674854e-06)</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -18810,19 +18810,19 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>-0.93</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="25">
@@ -18832,16 +18832,16 @@
         </is>
       </c>
       <c r="B25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 2.9792202098743275e-06)</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 2.9792202098743275e-06)</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -18863,19 +18863,19 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>-0.02</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>-0.3</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="26">
@@ -18938,16 +18938,16 @@
         </is>
       </c>
       <c r="B27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 2.2315322792905936e-05)</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 2.2315322792905936e-05)</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -18969,19 +18969,19 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>-0.03</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>-3.92</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="28">
@@ -19150,16 +19150,16 @@
         </is>
       </c>
       <c r="B31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 1.4321304773978305e-07)</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 1.4321304773978305e-07)</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -19181,16 +19181,16 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>-0.05</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -19203,16 +19203,16 @@
         </is>
       </c>
       <c r="B32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 4.5127317701431045e-09)</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 4.5127317701431045e-09)</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -19234,19 +19234,19 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>-1.1</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="33">
@@ -19511,16 +19511,16 @@
         </is>
       </c>
       <c r="B2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 0.0)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 0.0)</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -19530,31 +19530,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-0.08</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>-2.21</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="3">
@@ -19564,47 +19564,47 @@
         </is>
       </c>
       <c r="B3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 4.3401906637644754e-05)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 4.3401906637644754e-05)</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0.04</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -19617,16 +19617,16 @@
         </is>
       </c>
       <c r="B4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 0.0)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 0.0)</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -19636,31 +19636,31 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>-0.06</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>-0.29</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="5">
@@ -19723,23 +19723,23 @@
         </is>
       </c>
       <c r="B6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 3.7536585807730512e-06)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 3.7536585807730512e-06)</t>
         </is>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -19748,25 +19748,25 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="7">
@@ -19882,50 +19882,50 @@
         </is>
       </c>
       <c r="B9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 6.085762150038226e-06)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 6.085762150038226e-06)</t>
         </is>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>-0.42</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="10">
@@ -19935,16 +19935,16 @@
         </is>
       </c>
       <c r="B10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 0.0)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 0.0)</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -19954,31 +19954,31 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>-0.4</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="11">
@@ -20306,16 +20306,16 @@
         </is>
       </c>
       <c r="B17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 0.0)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 0.0)</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -20325,31 +20325,31 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>-0.12</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>-3.15</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="18">
@@ -20359,47 +20359,47 @@
         </is>
       </c>
       <c r="B18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 1.2162423715758497e-05)</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 1.2162423715758497e-05)</t>
         </is>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>-0.02</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>-0.02</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>0.49</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -20412,16 +20412,16 @@
         </is>
       </c>
       <c r="B19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 0.0)</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 0.0)</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -20431,31 +20431,31 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>-0.05</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>-1.07</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="20">
@@ -20465,16 +20465,16 @@
         </is>
       </c>
       <c r="B20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 0.0)</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 0.0)</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -20484,7 +20484,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -20493,19 +20493,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>-0.03</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -20571,16 +20571,16 @@
         </is>
       </c>
       <c r="B22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 0.0)</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 0.0)</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -20590,28 +20590,28 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>-0.16</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -20624,50 +20624,50 @@
         </is>
       </c>
       <c r="B23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 2.7195960493334722e-05)</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 2.7195960493334722e-05)</t>
         </is>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>-0.08</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>-2.72</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="24">
@@ -20677,50 +20677,50 @@
         </is>
       </c>
       <c r="B24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 1.4741704695350879e-05)</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 1.4741704695350879e-05)</t>
         </is>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>-0.04</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>-0.93</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="25">
@@ -20783,16 +20783,16 @@
         </is>
       </c>
       <c r="B26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 0.0)</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 0.0)</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -20802,31 +20802,31 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>-0.03</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>-0.35</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>-13.16</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="27">
@@ -20995,16 +20995,16 @@
         </is>
       </c>
       <c r="B30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 0.0)</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 0.0)</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -21014,28 +21014,28 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>-0.06</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>5.14</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -21048,16 +21048,16 @@
         </is>
       </c>
       <c r="B31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 9.45206115082568e-06)</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 9.45206115082568e-06)</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -21067,28 +21067,28 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>-0.05</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -21409,50 +21409,50 @@
         </is>
       </c>
       <c r="B2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 1.2295382519414015e-05)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 1.2295382519414015e-05)</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0.05</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-0.08</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>-2.21</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="3">
@@ -21462,47 +21462,47 @@
         </is>
       </c>
       <c r="B3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 7.65832265367428e-06)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 7.65832265367428e-06)</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0.04</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -21621,50 +21621,50 @@
         </is>
       </c>
       <c r="B6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 1.8985406832059071e-06)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 1.8985406832059071e-06)</t>
         </is>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="7">
@@ -21780,16 +21780,16 @@
         </is>
       </c>
       <c r="B9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 2.2650659687642274e-07)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 2.2650659687642274e-07)</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -21799,31 +21799,31 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>-0.42</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="10">
@@ -21833,16 +21833,16 @@
         </is>
       </c>
       <c r="B10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 0.0)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 0.0)</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -21852,31 +21852,31 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>-0.4</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="11">
@@ -22098,16 +22098,16 @@
         </is>
       </c>
       <c r="B15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 0.0)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 0.0)</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -22117,28 +22117,28 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>-0.06</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>0.77</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -22204,50 +22204,50 @@
         </is>
       </c>
       <c r="B17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 7.918085370760389e-06)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 7.918085370760389e-06)</t>
         </is>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>-0.03</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>-0.12</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>-3.15</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="18">
@@ -22257,23 +22257,23 @@
         </is>
       </c>
       <c r="B18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 1.3166906957912824e-06)</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 1.3166906957912824e-06)</t>
         </is>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -22282,22 +22282,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>-0.02</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>0.49</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -22310,16 +22310,16 @@
         </is>
       </c>
       <c r="B19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 0.0)</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 0.0)</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -22329,31 +22329,31 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>-0.05</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>-1.07</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="20">
@@ -22363,16 +22363,16 @@
         </is>
       </c>
       <c r="B20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 0.0)</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 0.0)</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -22382,28 +22382,28 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>-0.03</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -22469,47 +22469,47 @@
         </is>
       </c>
       <c r="B22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 7.050919325680859e-06)</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 7.050919325680859e-06)</t>
         </is>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>-0.16</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -22522,16 +22522,16 @@
         </is>
       </c>
       <c r="B23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 7.252256131555927e-07)</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 7.252256131555927e-07)</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -22541,31 +22541,31 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>-2.72</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="24">
@@ -22575,50 +22575,50 @@
         </is>
       </c>
       <c r="B24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 5.896681878140352e-06)</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 5.896681878140352e-06)</t>
         </is>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>-0.93</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="25">
@@ -22946,16 +22946,16 @@
         </is>
       </c>
       <c r="B31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 1.4321304773978305e-07)</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 1.4321304773978305e-07)</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -22965,28 +22965,28 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>-0.05</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -23360,47 +23360,47 @@
         </is>
       </c>
       <c r="B3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 1.4120922067741423e-05)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 1.4120922067741423e-05)</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0.04</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -25205,16 +25205,16 @@
         </is>
       </c>
       <c r="B2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 7.263464406486571e-05)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 7.263464406486571e-05)</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -25236,19 +25236,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-0.08</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>-2.21</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="3">
@@ -25258,16 +25258,16 @@
         </is>
       </c>
       <c r="B3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 4.55513615088433e-05)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 4.55513615088433e-05)</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -25289,16 +25289,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0.04</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -25311,16 +25311,16 @@
         </is>
       </c>
       <c r="B4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 1.8814802884836096e-05)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 1.8814802884836096e-05)</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -25342,19 +25342,19 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>-0.06</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>-0.29</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="5">
@@ -25364,16 +25364,16 @@
         </is>
       </c>
       <c r="B5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 3.850224625779044e-08)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 3.850224625779044e-08)</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -25395,19 +25395,19 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>-0.19</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>-4.15</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="6">
@@ -25417,16 +25417,16 @@
         </is>
       </c>
       <c r="B6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 3.1156004495158936e-05)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 3.1156004495158936e-05)</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -25448,19 +25448,19 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="7">
@@ -25523,16 +25523,16 @@
         </is>
       </c>
       <c r="B8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 4.935824506409369e-06)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 4.935824506409369e-06)</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -25554,19 +25554,19 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>-0.03</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>-2.02</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="9">
@@ -25576,16 +25576,16 @@
         </is>
       </c>
       <c r="B9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 8.927166319420656e-06)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 8.927166319420656e-06)</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -25607,19 +25607,19 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>-0.42</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="10">
@@ -25629,16 +25629,16 @@
         </is>
       </c>
       <c r="B10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 1.1702377343443526e-05)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 1.1702377343443526e-05)</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -25660,19 +25660,19 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>-0.4</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="11">
@@ -25682,16 +25682,16 @@
         </is>
       </c>
       <c r="B11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 7.96494018972842e-05)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 7.96494018972842e-05)</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -25713,19 +25713,19 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>-0.13</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>-3.91</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="12">
@@ -25735,16 +25735,16 @@
         </is>
       </c>
       <c r="B12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 5.047502753974727e-06)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 5.047502753974727e-06)</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -25766,19 +25766,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>-0.61</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="13">
@@ -25894,16 +25894,16 @@
         </is>
       </c>
       <c r="B15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 3.068876639751936e-05)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 3.068876639751936e-05)</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -25925,16 +25925,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>-0.06</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>0.77</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -25947,16 +25947,16 @@
         </is>
       </c>
       <c r="B16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 0.00010445910379660095)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 0.00010445910379660095)</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -25978,19 +25978,19 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>-0.05</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>-0.52</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="17">
@@ -26000,16 +26000,16 @@
         </is>
       </c>
       <c r="B17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 4.524620211863079e-05)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 4.524620211863079e-05)</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -26031,19 +26031,19 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>-0.12</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>-3.15</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="18">
@@ -26053,16 +26053,16 @@
         </is>
       </c>
       <c r="B18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 5.3415177190106584e-05)</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 5.3415177190106584e-05)</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -26084,16 +26084,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>-0.02</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>0.49</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -26159,16 +26159,16 @@
         </is>
       </c>
       <c r="B20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 3.856025617786204e-05)</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 3.856025617786204e-05)</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -26190,16 +26190,16 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>-0.03</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -26265,16 +26265,16 @@
         </is>
       </c>
       <c r="B22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 7.333956260380076e-05)</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 7.333956260380076e-05)</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -26296,16 +26296,16 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>-0.16</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -26424,16 +26424,16 @@
         </is>
       </c>
       <c r="B25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 4.715488434727332e-06)</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 4.715488434727332e-06)</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -26455,19 +26455,19 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>-0.02</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>-0.3</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="26">
@@ -26742,16 +26742,16 @@
         </is>
       </c>
       <c r="B31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 1.0024913341784813e-05)</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 1.0024913341784813e-05)</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -26773,16 +26773,16 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>-0.05</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -26901,16 +26901,16 @@
         </is>
       </c>
       <c r="B34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 0.00027254491777685847)</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 0.00027254491777685847)</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -26932,16 +26932,16 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>-0.4</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>10.45</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -26954,16 +26954,16 @@
         </is>
       </c>
       <c r="B35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 3.8333722901381795e-05)</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 3.8333722901381795e-05)</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -26985,19 +26985,19 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>-0.8</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>-28.51</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
   </sheetData>
@@ -27103,16 +27103,16 @@
         </is>
       </c>
       <c r="B2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 4.79569537345321e-07)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 4.79569537345321e-07)</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -27134,19 +27134,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-0.08</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>-2.21</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="3">
@@ -27209,16 +27209,16 @@
         </is>
       </c>
       <c r="B4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 4.5437748966879174e-08)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 4.5437748966879174e-08)</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -27240,19 +27240,19 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>-0.06</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>-0.29</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="5">
@@ -27262,16 +27262,16 @@
         </is>
       </c>
       <c r="B5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 4.3435590361562235e-08)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 4.3435590361562235e-08)</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -27293,19 +27293,19 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>-0.19</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>-4.15</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="6">
@@ -27315,16 +27315,16 @@
         </is>
       </c>
       <c r="B6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 1.3624586521601112e-05)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 1.3624586521601112e-05)</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -27346,19 +27346,19 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="7">
@@ -27474,16 +27474,16 @@
         </is>
       </c>
       <c r="B9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 1.7361944336046553e-08)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 1.7361944336046553e-08)</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -27505,19 +27505,19 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>-0.42</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="10">
@@ -27527,16 +27527,16 @@
         </is>
       </c>
       <c r="B10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 2.0323060752499966e-07)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 2.0323060752499966e-07)</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -27558,19 +27558,19 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>-0.4</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="11">
@@ -27580,16 +27580,16 @@
         </is>
       </c>
       <c r="B11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 3.209516608147622e-10)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 3.209516608147622e-10)</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -27611,19 +27611,19 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>-0.13</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>-3.91</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="12">
@@ -27792,16 +27792,16 @@
         </is>
       </c>
       <c r="B15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 1.0536476463148315e-08)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 1.0536476463148315e-08)</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -27823,16 +27823,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>-0.06</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>0.77</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -27845,16 +27845,16 @@
         </is>
       </c>
       <c r="B16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 2.770139367014972e-05)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 2.770139367014972e-05)</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -27876,19 +27876,19 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>-0.05</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>-0.52</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="17">
@@ -28057,16 +28057,16 @@
         </is>
       </c>
       <c r="B20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 5.166383639288754e-10)</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 5.166383639288754e-10)</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -28088,16 +28088,16 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>-0.03</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -28322,16 +28322,16 @@
         </is>
       </c>
       <c r="B25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 2.473429869697936e-09)</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 2.473429869697936e-09)</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -28353,19 +28353,19 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>-0.02</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>-0.3</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="26">
@@ -28375,16 +28375,16 @@
         </is>
       </c>
       <c r="B26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 0.0001355443120711999)</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 0.0001355443120711999)</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -28406,19 +28406,19 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>-0.35</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>-13.16</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="27">
@@ -28640,16 +28640,16 @@
         </is>
       </c>
       <c r="B31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>('-', '-')</t>
+          <t>(2018.0, 2.2341235447406155e-05)</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018.0, 2.2341235447406155e-05)</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -28671,16 +28671,16 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>-0.05</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>

--- a/output/endemo2_industry_coef_per_capita.xlsx
+++ b/output/endemo2_industry_coef_per_capita.xlsx
@@ -2454,7 +2454,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>6.8905124e-05</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -2560,7 +2560,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>4.2243249e-05</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>4.0591645e-05</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -2825,7 +2825,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1.1623731e-05</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1.6508475e-05</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -2931,7 +2931,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>3.864984e-06</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -2984,7 +2984,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1.5751742e-05</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -3143,7 +3143,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>4.8239712e-05</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -3196,7 +3196,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>0.000135058593</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -3302,7 +3302,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1.45559e-05</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -3355,7 +3355,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2.963211e-05</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -3408,7 +3408,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2.190102e-06</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -3514,7 +3514,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2.2655178e-05</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -3620,7 +3620,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1.027208e-06</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -3673,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1.007537e-06</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2.294e-09</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -4352,7 +4352,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>7.281603e-05</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -4405,7 +4405,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4.5389852e-05</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -4458,7 +4458,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1.8850044e-05</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -4511,7 +4511,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>3.8585e-08</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -4564,7 +4564,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>3.119869e-05</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -4670,7 +4670,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>4.932018e-06</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -4723,7 +4723,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>8.95382e-06</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -4776,7 +4776,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1.1734377e-05</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -4829,7 +4829,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>7.930698e-05</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -4882,7 +4882,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>5.042311e-06</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -5041,7 +5041,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>3.0679957e-05</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -5094,7 +5094,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>0.000104766381</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -5147,7 +5147,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>4.533982e-05</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -5200,7 +5200,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>5.3412453e-05</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>3.8448388e-05</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -5412,7 +5412,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>7.3339563e-05</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -5571,7 +5571,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>4.728777e-06</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -5889,7 +5889,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1.0024913e-05</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -6048,7 +6048,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>0.000271830978</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -6101,7 +6101,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>3.8416369e-05</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -6250,7 +6250,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>4.80767e-07</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -6356,7 +6356,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>4.5523e-08</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -6409,7 +6409,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>4.3529e-08</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -6462,7 +6462,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1.3643253e-05</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -6621,7 +6621,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1.7414e-08</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -6674,7 +6674,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2.03786e-07</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -6727,7 +6727,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>3.2e-10</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -6939,7 +6939,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1.0533e-08</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -6992,7 +6992,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2.778288e-05</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -7204,7 +7204,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>5.15e-10</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -7469,7 +7469,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2.48e-09</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -7522,7 +7522,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>0.000135961443</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -7787,7 +7787,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2.2341235e-05</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -8148,7 +8148,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>0.000232395956</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -8254,7 +8254,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2.0508848e-05</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -8360,7 +8360,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>5.9694465e-05</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -8519,7 +8519,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1.6974418e-05</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -8572,7 +8572,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>3.9196449e-05</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -8678,7 +8678,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1.6533305e-05</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -8837,7 +8837,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>5.9354672e-05</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -8890,7 +8890,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>0.000145295707</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -8943,7 +8943,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2.266991e-05</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -8996,7 +8996,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1.2319031e-05</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -9049,7 +9049,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2.8875628e-05</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -9208,7 +9208,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>6.600932e-06</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -9261,7 +9261,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>3.228656e-05</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -9314,7 +9314,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2.0424877e-05</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -9685,7 +9685,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2.2914088e-05</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -10046,7 +10046,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>0.000104666157</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -10152,7 +10152,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2.0508848e-05</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -10258,7 +10258,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>4.6360013e-05</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -10417,7 +10417,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2.6140617e-05</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -10470,7 +10470,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>3.2529166e-05</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -10576,7 +10576,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1.7359971e-05</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -10735,7 +10735,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>3.6819118e-05</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -10788,7 +10788,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>0.000115273703</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -10841,7 +10841,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2.266991e-05</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -10894,7 +10894,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>9.411990999999999e-06</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -10947,7 +10947,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1.3845839e-05</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -11000,7 +11000,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1.2321645e-05</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -11106,7 +11106,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>6.211974e-06</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>3.0472708e-05</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -11212,7 +11212,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2.646993e-05</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>3.3095344e-05</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -11583,7 +11583,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1.3676846e-05</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -11742,7 +11742,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1.7679784e-05</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -11944,7 +11944,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>6.8905124e-05</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -12050,7 +12050,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>4.2243249e-05</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -12156,7 +12156,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>4.0591645e-05</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -12315,7 +12315,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1.1623731e-05</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -12368,7 +12368,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1.6508475e-05</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -12421,7 +12421,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>3.864984e-06</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -12474,7 +12474,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1.5751742e-05</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -12633,7 +12633,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>4.8239712e-05</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -12686,7 +12686,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>0.000135058593</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -12792,7 +12792,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1.45559e-05</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -12845,7 +12845,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2.963211e-05</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -12898,7 +12898,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2.190102e-06</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -13004,7 +13004,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2.2655178e-05</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -13110,7 +13110,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1.027208e-06</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -13163,7 +13163,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1.007537e-06</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -13693,7 +13693,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2.294e-09</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -17638,7 +17638,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>0.000148813338</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -17691,7 +17691,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.4209245e-05</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -17744,7 +17744,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>0.000136547039</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -17797,7 +17797,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>6.0006586e-05</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -17850,7 +17850,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>8.5012873e-05</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -17903,7 +17903,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>4.844671e-06</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -17956,7 +17956,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>3.0030198e-05</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -18009,7 +18009,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>7.2918398e-05</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -18062,7 +18062,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>8.5887408e-05</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -18115,7 +18115,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>0.000109611197</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -18168,7 +18168,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>8.3968533e-05</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -18221,7 +18221,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1.4186039e-05</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -18274,7 +18274,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>0.000511249076</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -18327,7 +18327,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>6.267283600000001e-05</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -18380,7 +18380,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>7.6138156e-05</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -18486,7 +18486,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>6.228513e-05</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -18539,7 +18539,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>0.000140181179</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -18592,7 +18592,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2.3042855e-05</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -18645,7 +18645,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>5.4456911e-05</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -18698,7 +18698,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>6.2752084e-05</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -18751,7 +18751,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>0.00010536598</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -18804,7 +18804,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>4.4209634e-05</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -18857,7 +18857,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>5.0751325e-05</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -19175,7 +19175,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1.5681829e-05</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -19334,7 +19334,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1.821375e-05</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -19387,7 +19387,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>0.00010230836</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -19589,7 +19589,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.843963e-06</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -19642,7 +19642,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1.413753e-06</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -19695,7 +19695,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>4.324369e-06</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -19748,7 +19748,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>9.614415e-06</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -19854,7 +19854,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2.79299e-07</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -19907,7 +19907,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>5.20806e-06</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -19960,7 +19960,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>3.317446e-06</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -20013,7 +20013,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>4.87152e-07</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -20066,7 +20066,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1.1011181e-05</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -20225,7 +20225,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>5.113326e-06</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -20278,7 +20278,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1.455089e-06</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -20331,7 +20331,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1.7002433e-05</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -20384,7 +20384,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>5.00307e-07</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -20437,7 +20437,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1.749097e-06</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -20490,7 +20490,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>5.63218e-07</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -20543,7 +20543,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>9.676420000000001e-06</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -20649,7 +20649,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>6.529866e-06</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -20702,7 +20702,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>3.16198e-06</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -20755,7 +20755,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2.987616e-06</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -20861,7 +20861,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2.2394753e-05</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -21073,7 +21073,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1.43213e-07</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -21126,7 +21126,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>4.513e-09</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -27128,7 +27128,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>7.281603e-05</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27181,7 +27181,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4.5389852e-05</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27234,7 +27234,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1.8850044e-05</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27287,7 +27287,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>3.8585e-08</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27340,7 +27340,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>3.119869e-05</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27446,7 +27446,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>4.932018e-06</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27499,7 +27499,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>8.95382e-06</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27552,7 +27552,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1.1734377e-05</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -27605,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>7.930698e-05</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -27658,7 +27658,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>5.042311e-06</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -27817,7 +27817,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>3.0679957e-05</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -27870,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>0.000104766381</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -27923,7 +27923,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>4.533982e-05</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -27976,7 +27976,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>5.3412453e-05</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -28082,7 +28082,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>3.8448388e-05</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28188,7 +28188,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>7.3339563e-05</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -28347,7 +28347,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>4.728777e-06</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -28665,7 +28665,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1.0024913e-05</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -28824,7 +28824,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>0.000271830978</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -28877,7 +28877,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>3.8416369e-05</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -29026,7 +29026,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>4.80767e-07</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -29132,7 +29132,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>4.5523e-08</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -29185,7 +29185,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>4.3529e-08</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -29238,7 +29238,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1.3643253e-05</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -29397,7 +29397,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1.7414e-08</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -29450,7 +29450,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2.03786e-07</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -29503,7 +29503,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>3.2e-10</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -29715,7 +29715,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1.0533e-08</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -29768,7 +29768,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2.778288e-05</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -29980,7 +29980,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>5.15e-10</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -30245,7 +30245,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2.48e-09</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -30298,7 +30298,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>0.000135961443</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -30563,7 +30563,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2.2341235e-05</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -30924,7 +30924,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>0.000232395956</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -31030,7 +31030,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2.0508848e-05</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -31136,7 +31136,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>5.9694465e-05</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -31295,7 +31295,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1.6974418e-05</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -31348,7 +31348,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>3.9196449e-05</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -31454,7 +31454,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1.6533305e-05</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -31613,7 +31613,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>5.9354672e-05</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -31666,7 +31666,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>0.000145295707</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -31719,7 +31719,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2.266991e-05</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -31772,7 +31772,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1.2319031e-05</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -31825,7 +31825,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2.8875628e-05</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -31984,7 +31984,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>6.600932e-06</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -32037,7 +32037,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>3.228656e-05</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -32090,7 +32090,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2.0424877e-05</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2.2914088e-05</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -32822,7 +32822,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>0.000104666157</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -32928,7 +32928,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2.0508848e-05</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -33034,7 +33034,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>4.6360013e-05</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -33193,7 +33193,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2.6140617e-05</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -33246,7 +33246,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>3.2529166e-05</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -33352,7 +33352,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1.7359971e-05</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -33511,7 +33511,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>3.6819118e-05</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -33564,7 +33564,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>0.000115273703</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -33617,7 +33617,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2.266991e-05</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -33670,7 +33670,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>9.411990999999999e-06</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -33723,7 +33723,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1.3845839e-05</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -33776,7 +33776,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1.2321645e-05</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -33882,7 +33882,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>6.211974e-06</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -33935,7 +33935,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>3.0472708e-05</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -33988,7 +33988,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2.646993e-05</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -34094,7 +34094,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>3.3095344e-05</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1.3676846e-05</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -34518,7 +34518,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1.7679784e-05</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
